--- a/public/assets/ProjectContent.xlsx
+++ b/public/assets/ProjectContent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Work\Personal Projects\MyWebsite\website\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC92BFB-3791-4761-9DD5-F4EB7F4A6D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50581DC-ED62-4358-91F8-622BA86DA5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43D118BB-33E5-473A-9FB5-B0D457F42264}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="169">
   <si>
     <t>SubVRine</t>
   </si>
@@ -256,11 +256,6 @@
 Created an export system to automatically generate a file containing the results of parsing and playing the levels for data analysis</t>
   </si>
   <si>
-    <t>Art
-Created all the assets used in the game, including player animations (moving, jumping, etc.)
-Composed the soundtrack, inspired by the technological themes of the project</t>
-  </si>
-  <si>
     <t>Blender
 Designed the 3D scene, including writing a script to automatically generate the field of glass spheres
 Used a tool to export the scene into a Mitsuba 3 compatible XML format</t>
@@ -283,12 +278,6 @@
 Synchronized audio file to video</t>
   </si>
   <si>
-    <t>Java
-Utilized the Java MIDI package to play genetically generated melodies
-Implemented variations of crossover, mutation, and fitness functions for maximum experimentation
-Designed UI system using Java FXML</t>
-  </si>
-  <si>
     <t>Unity
 XR Interaction Toolkit &amp; Oculus XR plugin or Quest support
 Custom BlockManager service to instantiate Note, Sample, Mod, and Start Blocks with color-coded frames</t>
@@ -299,12 +288,6 @@
 Runtime UI spawning on wrist-mounted canvas, with drag-and-drop block menu</t>
   </si>
   <si>
-    <t>Unity
-Wrote scripts to handle movement over the global in different styles
-Added real-time data such as weather and air traffic for realism
-Bookmarks and other quality of life features to better match Google Earth VR</t>
-  </si>
-  <si>
     <t>Cesium
 Incorporated Cesium for Unity to stream 3D Tiles (terrain, buildings, imagery) in real time
 Optimized geographic data loading and rendering when traveling at high speeds</t>
@@ -338,20 +321,11 @@
   </si>
   <si>
     <t>Unity
-Built a simple VR scene with puzzle logic to challenge the player
-Uitilized controller-based interactions for grabbing and releasing objects</t>
-  </si>
-  <si>
-    <t>Unity
 Designed a novel 6-DOF VR user interface for locomotion and arbitrary object manipulation</t>
   </si>
   <si>
     <t>Three.js
 Utilized Line Rendering and trigonometric functions to create animated patterns</t>
-  </si>
-  <si>
-    <t>React
-Built a user interface to customize pattern parameters and create animations</t>
   </si>
   <si>
     <t>BattleTetris was my entry for VARLAB’s Summer Game Jam 2024. The theme of the game jam was "The Others", and my interpretation of that concept was something competitive and novel. My idea was a chaotic, two-player twist on the original Tetris formula: both players compete on the same board, but with opposite gravity. Player 1 drops blocks from the top like normal, while Player 2 starts from the bottom and pushes pieces upward.
@@ -442,9 +416,6 @@
   </si>
   <si>
     <t>February 4th, 2025</t>
-  </si>
-  <si>
-    <t>October 10th, 2020</t>
   </si>
   <si>
     <t>Principal Hardware</t>
@@ -580,10 +551,6 @@
 Used Java’s 2D graphics API to simulate ray traversal through a grid and visualize intersections in real time</t>
   </si>
   <si>
-    <t>DDA Algorithm
-Implemented a digital differential analyzer (DDA)-style algorithm to simulate grid traversal and binary output based on exit sides</t>
-  </si>
-  <si>
     <t>Java Swing
 Created an interactive GUI to control radii, speeds, and drawing logic</t>
   </si>
@@ -606,11 +573,6 @@
     <t>MongoDB
 Defined schema for user favorites, location-based lookups, and cuisine filters
 Stored geolocation-enabled restaurant data for fast proximity filtering</t>
-  </si>
-  <si>
-    <t>ExpressJS + NodeJS
-Built RESTful APIs to handle user registration, location queries, and randomized restaurant selection
-Managed server-side logic for filters like cuisine type and friend-based favorite sharing</t>
   </si>
   <si>
     <t>React
@@ -679,12 +641,53 @@
 Used to construct the 3D AR scene and place interactive models, quotes, and links
 Achieved WebAR-friendly performance by balancing detail and optimization</t>
   </si>
+  <si>
+    <t>Unity
+Wrote scripts to handle movement over the global in different styles
+Implemented real-time data such as weather and air traffic for realism
+Bookmarks and other quality of life features to better match Google Earth VR</t>
+  </si>
+  <si>
+    <t>Java
+Created a genetic algorithim that operates on a numerical representation of pitches and rhythms
+Utilized the Java MIDI package to play genetically generated melodies
+Implemented variations of crossover, mutation, and fitness functions for maximum experimentation</t>
+  </si>
+  <si>
+    <t>Art
+Created all the assets used in the game, including player animations (moving, jumping, etc.)
+Composed an original soundtrack, inspired by the technological themes of the project</t>
+  </si>
+  <si>
+    <t>October 9th, 2020</t>
+  </si>
+  <si>
+    <t>October 11th, 2020</t>
+  </si>
+  <si>
+    <t>Unity
+Built a simple VR scene with puzzle logic to challenge the player
+Utilized controller-based interactions for grabbing and releasing objects</t>
+  </si>
+  <si>
+    <t>React
+Crafted a user interface to customize pattern parameters and create animations</t>
+  </si>
+  <si>
+    <t>DDA Algorithm
+Designed a digital differential analyzer (DDA)-style algorithm to simulate grid traversal and binary output based on exit sides</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Node.js + Express.js
+Built RESTful APIs to handle user registration, location queries, and randomized restaurant selection
+Managed server-side logic for filters like cuisine type and friend-based favorite sharing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,12 +722,6 @@
     </font>
     <font>
       <sz val="72"/>
-      <color theme="1"/>
-      <name val="Bierstadt Display"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Bierstadt Display"/>
       <family val="2"/>
@@ -961,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,39 +1119,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1197,15 +1194,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1213,6 +1201,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1223,6 +1217,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC2DBAF"/>
       <color rgb="FF9AAFC2"/>
       <color rgb="FF577590"/>
       <color rgb="FFFCAAAC"/>
@@ -1232,7 +1227,6 @@
       <color rgb="FFF3722C"/>
       <color rgb="FFF94144"/>
       <color rgb="FF81CDB5"/>
-      <color rgb="FFFFFFA7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1563,12 +1557,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19A312E-A7DF-4680-8C5B-375D2B52973A}">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="topRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" x14ac:dyDescent="0.2"/>
@@ -1687,51 +1681,51 @@
     </row>
     <row r="3" spans="1:28" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="L3" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O3" s="42">
         <v>44309</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U3" s="40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="V3" s="34"/>
       <c r="W3" s="34"/>
@@ -1749,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>50</v>
@@ -1760,34 +1754,34 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="L4" s="40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M4" s="41">
         <v>44831</v>
       </c>
       <c r="N4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="S4" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="T4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
@@ -1802,10 +1796,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>52</v>
@@ -1816,34 +1810,34 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="L5" s="40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M5" s="42">
         <v>44972</v>
       </c>
       <c r="N5" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" s="40" t="s">
+      <c r="S5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U5" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
@@ -1861,41 +1855,41 @@
         <v>49</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="8"/>
       <c r="L6" s="40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M6" s="43">
         <v>45017</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O6" s="43">
         <v>45200</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T6" s="40" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U6" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="V6" s="34"/>
       <c r="W6" s="34"/>
@@ -1913,39 +1907,39 @@
         <v>43</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
@@ -1959,49 +1953,49 @@
     <row r="8" spans="1:28" ht="180" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="65" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="L8" s="40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M8" s="42">
         <v>45226</v>
       </c>
       <c r="N8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="P8" s="40" t="s">
+      <c r="S8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U8" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
@@ -2019,43 +2013,43 @@
         <v>47</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="8"/>
       <c r="L9" s="40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M9" s="43">
         <v>45566</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O9" s="43">
         <v>45627</v>
       </c>
       <c r="P9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="S9" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="V9" s="34"/>
       <c r="W9" s="34"/>
@@ -2090,7 +2084,7 @@
     </row>
     <row r="11" spans="1:28" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="85" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>4</v>
@@ -2100,35 +2094,35 @@
         <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="L11" s="29" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O11" s="58">
         <v>45060</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="47" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="R11" s="47" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="S11" s="47" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="T11" s="47"/>
       <c r="U11" s="47"/>
@@ -2142,39 +2136,39 @@
     <row r="12" spans="1:28" ht="240" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="L12" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M12" s="57">
         <v>45292</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
@@ -2291,9 +2285,9 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="62"/>
     </row>
-    <row r="17" spans="1:28" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A17" s="88" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B17" s="68" t="s">
         <v>37</v>
@@ -2303,41 +2297,41 @@
         <v>46</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="L17" s="30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M17" s="79" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O17" s="79" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="T17" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="48" t="s">
         <v>83</v>
-      </c>
-      <c r="Q17" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="S17" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="T17" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="U17" s="48" t="s">
-        <v>88</v>
       </c>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
@@ -2355,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>54</v>
@@ -2368,10 +2362,10 @@
       </c>
       <c r="J18" s="11"/>
       <c r="L18" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M18" s="80" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N18" s="30" t="s">
         <v>39</v>
@@ -2380,10 +2374,10 @@
         <v>3450</v>
       </c>
       <c r="P18" s="48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R18" s="48"/>
       <c r="S18" s="48"/>
@@ -2396,7 +2390,7 @@
       <c r="Z18" s="39"/>
       <c r="AA18" s="39"/>
     </row>
-    <row r="19" spans="1:28" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A19" s="89"/>
       <c r="B19" s="68" t="s">
         <v>31</v>
@@ -2411,33 +2405,33 @@
         <v>58</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="L19" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M19" s="79">
         <v>45566</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O19" s="79">
         <v>45627</v>
       </c>
       <c r="P19" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S19" s="48" t="s">
         <v>83</v>
-      </c>
-      <c r="Q19" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="S19" s="48" t="s">
-        <v>88</v>
       </c>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
@@ -2448,52 +2442,56 @@
       <c r="Z19" s="39"/>
       <c r="AA19" s="39"/>
     </row>
-    <row r="20" spans="1:28" ht="144" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
+    <row r="20" spans="1:28" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="90"/>
       <c r="B20" s="68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="L20" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="78">
+        <v>45743</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="78">
+        <v>45768</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="S20" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="T20" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="M20" s="79">
-        <v>45566</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" s="78">
-        <v>45628</v>
-      </c>
-      <c r="P20" s="48" t="s">
+      <c r="U20" s="48" t="s">
         <v>83</v>
-      </c>
-      <c r="Q20" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="S20" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="T20" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="U20" s="48" t="s">
-        <v>88</v>
       </c>
       <c r="V20" s="39"/>
       <c r="W20" s="39"/>
@@ -2502,116 +2500,97 @@
       <c r="Z20" s="39"/>
       <c r="AA20" s="39"/>
     </row>
-    <row r="21" spans="1:28" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="90"/>
-      <c r="B21" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="L21" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="78">
-        <v>45743</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" s="78">
-        <v>45768</v>
-      </c>
-      <c r="P21" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="R21" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S21" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="T21" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="U21" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-    </row>
-    <row r="22" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="66"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="2"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="62"/>
-    </row>
-    <row r="23" spans="1:28" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="91" t="s">
-        <v>125</v>
-      </c>
+    <row r="21" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="66"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="2"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="62"/>
+    </row>
+    <row r="22" spans="1:28" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="L22" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+    </row>
+    <row r="23" spans="1:28" ht="132" x14ac:dyDescent="0.2">
+      <c r="A23" s="94"/>
       <c r="B23" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="75"/>
+        <v>9</v>
+      </c>
       <c r="D23" s="36" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>144</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="L23" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+        <v>99</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="49"/>
@@ -2625,28 +2604,26 @@
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
     </row>
-    <row r="24" spans="1:28" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="92"/>
+    <row r="24" spans="1:28" ht="72" x14ac:dyDescent="0.2">
+      <c r="A24" s="94"/>
       <c r="B24" s="69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>78</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G24" s="37"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="L24" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="M24" s="55" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
@@ -2663,33 +2640,31 @@
       <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
     </row>
-    <row r="25" spans="1:28" ht="132" x14ac:dyDescent="0.2">
-      <c r="A25" s="92"/>
+    <row r="25" spans="1:28" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="94"/>
       <c r="B25" s="69" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="L25" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>105</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
@@ -2703,27 +2678,19 @@
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
     </row>
-    <row r="26" spans="1:28" ht="72" x14ac:dyDescent="0.2">
-      <c r="A26" s="92"/>
+    <row r="26" spans="1:28" ht="55.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="95"/>
       <c r="B26" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>148</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="L26" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>139</v>
-      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="49"/>
@@ -2739,143 +2706,181 @@
       <c r="Z26" s="37"/>
       <c r="AA26" s="37"/>
     </row>
-    <row r="27" spans="1:28" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
-      <c r="B27" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="37" t="s">
+    <row r="27" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="66"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="2"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="62"/>
+    </row>
+    <row r="28" spans="1:28" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="L28" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="56">
+        <v>43922</v>
+      </c>
+      <c r="P28" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="R28" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="S28" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+    </row>
+    <row r="29" spans="1:28" ht="171" x14ac:dyDescent="0.2">
+      <c r="A29" s="92"/>
+      <c r="B29" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="L27" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" s="31" t="s">
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="L29" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="56">
+        <v>43922</v>
+      </c>
+      <c r="P29" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-    </row>
-    <row r="28" spans="1:28" ht="55.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-    </row>
-    <row r="29" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="66"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="2"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="62"/>
-    </row>
-    <row r="30" spans="1:28" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="94" t="s">
-        <v>126</v>
-      </c>
+      <c r="R29" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="S29" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+    </row>
+    <row r="30" spans="1:28" ht="156" x14ac:dyDescent="0.2">
+      <c r="A30" s="92"/>
       <c r="B30" s="70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="L30" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" s="56">
-        <v>43922</v>
-      </c>
-      <c r="P30" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="R30" s="50" t="s">
-        <v>97</v>
-      </c>
       <c r="S30" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
+        <v>81</v>
+      </c>
+      <c r="T30" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="U30" s="50" t="s">
+        <v>104</v>
+      </c>
       <c r="V30" s="38"/>
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
@@ -2883,49 +2888,35 @@
       <c r="Z30" s="38"/>
       <c r="AA30" s="38"/>
     </row>
-    <row r="31" spans="1:28" ht="171" x14ac:dyDescent="0.2">
-      <c r="A31" s="95"/>
+    <row r="31" spans="1:28" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="92"/>
       <c r="B31" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>112</v>
+        <v>32</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+        <v>138</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
       <c r="L31" s="32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="O31" s="56">
-        <v>43922</v>
-      </c>
-      <c r="P31" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="R31" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="S31" s="50" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
       <c r="T31" s="50"/>
       <c r="U31" s="50"/>
       <c r="V31" s="38"/>
@@ -2935,45 +2926,23 @@
       <c r="Z31" s="38"/>
       <c r="AA31" s="38"/>
     </row>
-    <row r="32" spans="1:28" ht="156" x14ac:dyDescent="0.2">
-      <c r="A32" s="95"/>
-      <c r="B32" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="93"/>
+      <c r="B32" s="70"/>
+      <c r="D32" s="20"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
-      <c r="L32" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="O32" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="P32" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q32" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="R32" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="S32" s="50" t="s">
-        <v>110</v>
-      </c>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
       <c r="T32" s="50"/>
       <c r="U32" s="50"/>
       <c r="V32" s="38"/>
@@ -2983,89 +2952,91 @@
       <c r="Z32" s="38"/>
       <c r="AA32" s="38"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="70"/>
-      <c r="D33" s="20"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="96"/>
-      <c r="B34" s="70"/>
-      <c r="D34" s="20"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-    </row>
-    <row r="35" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="66"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="2"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="62"/>
+    <row r="33" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="66"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="2"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="62"/>
+    </row>
+    <row r="34" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+    </row>
+    <row r="35" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
     </row>
     <row r="36" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="71" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="82"/>
+      <c r="B36" s="71"/>
       <c r="D36" s="21"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -3091,9 +3062,7 @@
     </row>
     <row r="37" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="82"/>
-      <c r="B37" s="71" t="s">
-        <v>35</v>
-      </c>
+      <c r="B37" s="71"/>
       <c r="D37" s="21"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -3118,7 +3087,7 @@
       <c r="AA37" s="52"/>
     </row>
     <row r="38" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="71"/>
       <c r="D38" s="21"/>
       <c r="F38" s="14"/>
@@ -3143,90 +3112,38 @@
       <c r="Z38" s="52"/>
       <c r="AA38" s="52"/>
     </row>
-    <row r="39" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="82"/>
-      <c r="B39" s="71"/>
-      <c r="D39" s="21"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-    </row>
-    <row r="40" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="71"/>
-      <c r="D40" s="21"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-    </row>
-    <row r="41" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="72"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="2"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="62"/>
+    <row r="39" spans="1:28" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="72"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="2"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A34:A38"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/ProjectContent.xlsx
+++ b/public/assets/ProjectContent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Work\Personal Projects\MyWebsite\website\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50581DC-ED62-4358-91F8-622BA86DA5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C827C5D-2C6D-4E7E-915D-970962ACD75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43D118BB-33E5-473A-9FB5-B0D457F42264}"/>
   </bookViews>
@@ -1194,6 +1194,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1201,12 +1207,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1559,10 +1559,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19A312E-A7DF-4680-8C5B-375D2B52973A}">
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H29" sqref="H29"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" x14ac:dyDescent="0.2"/>
@@ -2525,7 +2525,7 @@
       <c r="AB21" s="62"/>
     </row>
     <row r="22" spans="1:28" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="91" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="69" t="s">
@@ -2565,7 +2565,7 @@
       <c r="AA22" s="37"/>
     </row>
     <row r="23" spans="1:28" ht="132" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="69" t="s">
         <v>9</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="AA23" s="37"/>
     </row>
     <row r="24" spans="1:28" ht="72" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="69" t="s">
         <v>10</v>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="AA24" s="37"/>
     </row>
     <row r="25" spans="1:28" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="94"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="69" t="s">
         <v>33</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="AA25" s="37"/>
     </row>
     <row r="26" spans="1:28" ht="55.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="95"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="69" t="s">
         <v>40</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="AB27" s="62"/>
     </row>
     <row r="28" spans="1:28" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="93" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="70" t="s">
@@ -2785,7 +2785,7 @@
       <c r="AA28" s="38"/>
     </row>
     <row r="29" spans="1:28" ht="171" x14ac:dyDescent="0.2">
-      <c r="A29" s="92"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="70" t="s">
         <v>28</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="AA29" s="38"/>
     </row>
     <row r="30" spans="1:28" ht="156" x14ac:dyDescent="0.2">
-      <c r="A30" s="92"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="70" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="AA30" s="38"/>
     </row>
     <row r="31" spans="1:28" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="92"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="70" t="s">
         <v>32</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="AA31" s="38"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="70"/>
       <c r="D32" s="20"/>
       <c r="F32" s="13"/>
